--- a/Results and Graphs/cronbach's Alpha by GPT + experts  rator.xlsx
+++ b/Results and Graphs/cronbach's Alpha by GPT + experts  rator.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DF87CB-E84F-4454-BC67-009947F4A931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9938E669-13B8-4305-8206-CE1347703ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="2490" windowWidth="14460" windowHeight="10965" firstSheet="1" activeTab="1" xr2:uid="{99515564-E1BD-456A-B385-FB3F9175CC23}"/>
+    <workbookView xWindow="11925" yWindow="3600" windowWidth="13185" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{99515564-E1BD-456A-B385-FB3F9175CC23}"/>
   </bookViews>
   <sheets>
     <sheet name="cronbach's Alpha between GPT" sheetId="1" r:id="rId1"/>
-    <sheet name="between experts" sheetId="2" r:id="rId2"/>
+    <sheet name="cronbach's Alpha btween experts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>colab</t>
   </si>
@@ -66,46 +66,23 @@
     <t>Generated by</t>
   </si>
   <si>
-    <t>relevance</t>
-  </si>
-  <si>
-    <t>Inn</t>
-  </si>
-  <si>
-    <t>ins</t>
-  </si>
-  <si>
     <t>The value is negative due to a negative average covariance among items. This violates reliability model assumptions. You may want to check item codings.</t>
   </si>
   <si>
-    <t>Tukey's estimate of power to which observations must be raised to achieve additivity = 5.500.</t>
-  </si>
-  <si>
-    <t>Tukey's estimate of power to which observations must be raised to achieve additivity = -1.320.</t>
-  </si>
-  <si>
-    <t>Tukey's estimate of power to which observations must be raised to achieve additivity = -1.183.</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>Kendall's coefficient of concordance W = .067.</t>
-  </si>
-  <si>
-    <t>Tukey's estimate of power to which observations must be raised to achieve additivity = 2.111.</t>
-  </si>
-  <si>
-    <t>Tukey's estimate of power to which observations must be raised to achieve additivity = .666.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tukey's estimate of power to which observations must be raised to achieve additivity = .254.							</t>
+    <t>N of Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="####.000"/>
+    <numFmt numFmtId="169" formatCode="###0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,12 +109,57 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thick">
+        <color indexed="8"/>
+      </right>
+      <top style="thick">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -146,16 +168,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +512,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,14 +535,12 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0.98399999999999999</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -513,7 +548,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -525,9 +560,7 @@
       <c r="C3">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -535,7 +568,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -561,14 +594,12 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>0.99099999999999999</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -576,7 +607,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -608,9 +639,6 @@
       </c>
       <c r="C10">
         <v>0.98</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -649,85 +677,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5EC5AD-AF01-4BC7-BB1E-C44686B3E6CB}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.315</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.37</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>-0.122</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>-0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>-0.39</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-0.27600000000000002</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
+      <c r="C14">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>-0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
